--- a/Code/Results/Cases/Case_1_120/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_120/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.88479886225107</v>
+        <v>15.71374451806485</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.400950306947971</v>
+        <v>9.660037839661179</v>
       </c>
       <c r="E2">
-        <v>11.93493228211513</v>
+        <v>15.14709035048297</v>
       </c>
       <c r="F2">
-        <v>23.07965248048365</v>
+        <v>32.40669470620042</v>
       </c>
       <c r="G2">
-        <v>2.064825027086512</v>
+        <v>3.642349462444162</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.6214739407121</v>
+        <v>25.33900153116398</v>
       </c>
       <c r="J2">
-        <v>8.197056561412397</v>
+        <v>10.95771707362281</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.78352793769751</v>
+        <v>11.02550162149143</v>
       </c>
       <c r="M2">
-        <v>13.2759754193844</v>
+        <v>16.2092548954229</v>
       </c>
       <c r="N2">
-        <v>13.71051261842999</v>
+        <v>19.07330448870055</v>
       </c>
       <c r="O2">
-        <v>18.07579179277624</v>
+        <v>24.49250954384666</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.94883848376146</v>
+        <v>15.46143965800333</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.370326550771467</v>
+        <v>9.660312985752499</v>
       </c>
       <c r="E3">
-        <v>11.73341953980264</v>
+        <v>15.101929811064</v>
       </c>
       <c r="F3">
-        <v>22.50577798358206</v>
+        <v>32.42841335343417</v>
       </c>
       <c r="G3">
-        <v>2.070963341048609</v>
+        <v>3.644765870930261</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.00454359613683</v>
+        <v>25.47730906242088</v>
       </c>
       <c r="J3">
-        <v>8.084463447850124</v>
+        <v>10.93359541991284</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.262059899907166</v>
+        <v>10.91178279675109</v>
       </c>
       <c r="M3">
-        <v>12.63320244163101</v>
+        <v>16.08362589179921</v>
       </c>
       <c r="N3">
-        <v>13.75337168408719</v>
+        <v>19.10374759460316</v>
       </c>
       <c r="O3">
-        <v>17.530695426898</v>
+        <v>24.48171495793156</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.34608963858331</v>
+        <v>15.30626576287761</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.352244733150257</v>
+        <v>9.660793873086323</v>
       </c>
       <c r="E4">
-        <v>11.60850924256661</v>
+        <v>15.07429699317788</v>
       </c>
       <c r="F4">
-        <v>22.16791465500591</v>
+        <v>32.45010262810058</v>
       </c>
       <c r="G4">
-        <v>2.074853229890691</v>
+        <v>3.646329974666914</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.24703013018151</v>
+        <v>25.56656891839322</v>
       </c>
       <c r="J4">
-        <v>8.01486399725326</v>
+        <v>10.91886608836706</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.928785981212274</v>
+        <v>10.84264332604312</v>
       </c>
       <c r="M4">
-        <v>12.22436863209757</v>
+        <v>16.00779357643</v>
       </c>
       <c r="N4">
-        <v>13.78375371935569</v>
+        <v>19.12440085473332</v>
       </c>
       <c r="O4">
-        <v>17.20373367391823</v>
+        <v>24.4813322689285</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.09356287730413</v>
+        <v>15.24304013263478</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.345051000642894</v>
+        <v>9.661068543734716</v>
       </c>
       <c r="E5">
-        <v>11.55734382544459</v>
+        <v>15.06306403739524</v>
       </c>
       <c r="F5">
-        <v>22.03398254328647</v>
+        <v>32.46103926750727</v>
       </c>
       <c r="G5">
-        <v>2.076469564874843</v>
+        <v>3.64698764716348</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.34769006738328</v>
+        <v>25.60403666728433</v>
       </c>
       <c r="J5">
-        <v>7.986399701827077</v>
+        <v>10.91288583517314</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.789811529324588</v>
+        <v>10.81466634418925</v>
       </c>
       <c r="M5">
-        <v>12.05439718177095</v>
+        <v>15.97724404864452</v>
       </c>
       <c r="N5">
-        <v>13.79713925686869</v>
+        <v>19.13331128155839</v>
       </c>
       <c r="O5">
-        <v>17.07258686635607</v>
+        <v>24.48274767381788</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.0512194785732</v>
+        <v>15.23254428148834</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.343866857763622</v>
+        <v>9.66111891385844</v>
       </c>
       <c r="E6">
-        <v>11.54883294188084</v>
+        <v>15.06120058482697</v>
       </c>
       <c r="F6">
-        <v>22.01197254274594</v>
+        <v>32.46298191028076</v>
       </c>
       <c r="G6">
-        <v>2.07673986051795</v>
+        <v>3.647098080423858</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.36451642079266</v>
+        <v>25.61032429048422</v>
       </c>
       <c r="J6">
-        <v>7.981667530188713</v>
+        <v>10.91189419741044</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.766548206514187</v>
+        <v>10.8100334891586</v>
       </c>
       <c r="M6">
-        <v>12.02597643951111</v>
+        <v>15.97219334038898</v>
       </c>
       <c r="N6">
-        <v>13.79942208086012</v>
+        <v>19.13482071797499</v>
       </c>
       <c r="O6">
-        <v>17.050940801107</v>
+        <v>24.48307761231479</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.34271168490936</v>
+        <v>15.30541294538928</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.352147016754925</v>
+        <v>9.660797258355444</v>
       </c>
       <c r="E7">
-        <v>11.60782022927758</v>
+        <v>15.07414538506808</v>
       </c>
       <c r="F7">
-        <v>22.16609308617594</v>
+        <v>32.45024163264632</v>
       </c>
       <c r="G7">
-        <v>2.074874901144434</v>
+        <v>3.646338762037966</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.24838017668969</v>
+        <v>25.56706978990917</v>
       </c>
       <c r="J7">
-        <v>8.014480509864079</v>
+        <v>10.91878534514485</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.92692433858133</v>
+        <v>10.84226518348318</v>
       </c>
       <c r="M7">
-        <v>12.22208969504135</v>
+        <v>16.00738011426532</v>
       </c>
       <c r="N7">
-        <v>13.78393019689836</v>
+        <v>19.12451902223168</v>
       </c>
       <c r="O7">
-        <v>17.20195631114945</v>
+        <v>24.48134499484137</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.56798640246578</v>
+        <v>15.62684724567555</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.390237369718515</v>
+        <v>9.66006812341576</v>
       </c>
       <c r="E8">
-        <v>11.86571525137268</v>
+        <v>15.13150120553701</v>
       </c>
       <c r="F8">
-        <v>22.87883685257307</v>
+        <v>32.41244820487294</v>
       </c>
       <c r="G8">
-        <v>2.066916887656476</v>
+        <v>3.64316598855198</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.75205346321439</v>
+        <v>25.38579114082433</v>
       </c>
       <c r="J8">
-        <v>8.158340417855936</v>
+        <v>10.94938397426449</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.606512200478402</v>
+        <v>10.98616492281576</v>
       </c>
       <c r="M8">
-        <v>13.05739476663802</v>
+        <v>16.16568230204642</v>
       </c>
       <c r="N8">
-        <v>13.72443544466631</v>
+        <v>19.08339481026834</v>
       </c>
       <c r="O8">
-        <v>17.88632706527428</v>
+        <v>24.48749226217542</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.74302393350739</v>
+        <v>16.2519524188637</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.470988691425098</v>
+        <v>9.66110229199858</v>
       </c>
       <c r="E9">
-        <v>12.3607145053563</v>
+        <v>15.24458305976223</v>
       </c>
       <c r="F9">
-        <v>24.38666405685984</v>
+        <v>32.40469012435231</v>
       </c>
       <c r="G9">
-        <v>2.05223433265856</v>
+        <v>3.637579298804185</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.8359522650498</v>
+        <v>25.0646040589449</v>
       </c>
       <c r="J9">
-        <v>8.436106215110213</v>
+        <v>11.00996531547084</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.8942127658312</v>
+        <v>11.27263586152993</v>
       </c>
       <c r="M9">
-        <v>14.57603241107458</v>
+        <v>16.48535234723026</v>
       </c>
       <c r="N9">
-        <v>13.64087256016044</v>
+        <v>19.01826999952839</v>
       </c>
       <c r="O9">
-        <v>19.28339157192646</v>
+        <v>24.54901236479661</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.19751184266456</v>
+        <v>16.703887158725</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.534532369392156</v>
+        <v>9.663349859915675</v>
       </c>
       <c r="E10">
-        <v>12.71620194293991</v>
+        <v>15.32782910139648</v>
       </c>
       <c r="F10">
-        <v>25.55504021547878</v>
+        <v>32.43947042698301</v>
       </c>
       <c r="G10">
-        <v>2.041955665991854</v>
+        <v>3.633857775596899</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.19711590606429</v>
+        <v>24.84936250785215</v>
       </c>
       <c r="J10">
-        <v>8.636747898621223</v>
+        <v>11.05473534661658</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.8499213208343</v>
+        <v>11.48417645966805</v>
       </c>
       <c r="M10">
-        <v>15.66569803591932</v>
+        <v>16.7243353675333</v>
       </c>
       <c r="N10">
-        <v>13.60087449736784</v>
+        <v>18.9798297503779</v>
       </c>
       <c r="O10">
-        <v>20.3355878492739</v>
+        <v>24.6241803900313</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.82751325469254</v>
+        <v>16.90705758005123</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.564489809549309</v>
+        <v>9.664692320031456</v>
       </c>
       <c r="E11">
-        <v>12.87585269333983</v>
+        <v>15.36569109299818</v>
       </c>
       <c r="F11">
-        <v>26.09842063132309</v>
+        <v>32.46406417298802</v>
       </c>
       <c r="G11">
-        <v>2.037377201918938</v>
+        <v>3.632247042225414</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.91385468782728</v>
+        <v>24.75590871916215</v>
       </c>
       <c r="J11">
-        <v>8.727135390348232</v>
+        <v>11.07513925155691</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.26218210524341</v>
+        <v>11.58031814356271</v>
       </c>
       <c r="M11">
-        <v>16.20537551142557</v>
+        <v>16.83362330384811</v>
       </c>
       <c r="N11">
-        <v>13.58760260970417</v>
+        <v>18.96437328176695</v>
       </c>
       <c r="O11">
-        <v>20.81848171959062</v>
+        <v>24.66482003947583</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.06150575219966</v>
+        <v>16.98357926766758</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.57599779053334</v>
+        <v>9.665246416621075</v>
       </c>
       <c r="E12">
-        <v>12.9359913731518</v>
+        <v>15.38002349041201</v>
       </c>
       <c r="F12">
-        <v>26.30579749974514</v>
+        <v>32.47463484686737</v>
       </c>
       <c r="G12">
-        <v>2.035656313069238</v>
+        <v>3.631648853234795</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.80765000350183</v>
+        <v>24.72115892814396</v>
       </c>
       <c r="J12">
-        <v>8.761224934559939</v>
+        <v>11.08286933799255</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.41509787898085</v>
+        <v>11.61668467206107</v>
       </c>
       <c r="M12">
-        <v>16.40547437740507</v>
+        <v>16.87506262603368</v>
       </c>
       <c r="N12">
-        <v>13.58330901104766</v>
+        <v>18.9588112831447</v>
       </c>
       <c r="O12">
-        <v>21.0018589506869</v>
+        <v>24.68112868848803</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.01131499553023</v>
+        <v>16.96711842398538</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.573511840361755</v>
+        <v>9.665125052445438</v>
       </c>
       <c r="E13">
-        <v>12.92305385346151</v>
+        <v>15.37693704552334</v>
       </c>
       <c r="F13">
-        <v>26.26106494881044</v>
+        <v>32.47230240776857</v>
       </c>
       <c r="G13">
-        <v>2.03602638338687</v>
+        <v>3.631777161829711</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.8304758042013</v>
+        <v>24.72861452826786</v>
       </c>
       <c r="J13">
-        <v>8.753889446861345</v>
+        <v>11.08120439669564</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.38230636955174</v>
+        <v>11.60885471080494</v>
       </c>
       <c r="M13">
-        <v>16.36256851471702</v>
+        <v>16.86613595554087</v>
       </c>
       <c r="N13">
-        <v>13.58420075512962</v>
+        <v>18.95999622999919</v>
       </c>
       <c r="O13">
-        <v>20.96234373666958</v>
+        <v>24.67757557561387</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.8468557396242</v>
+        <v>16.91336174621373</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.565433218440063</v>
+        <v>9.664736990910566</v>
       </c>
       <c r="E14">
-        <v>12.8808068113023</v>
+        <v>15.36687035415317</v>
       </c>
       <c r="F14">
-        <v>26.11544988097245</v>
+        <v>32.46490865195774</v>
       </c>
       <c r="G14">
-        <v>2.0372353720323</v>
+        <v>3.63219759349793</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.90509587345564</v>
+        <v>24.75303703690924</v>
       </c>
       <c r="J14">
-        <v>8.729942785235053</v>
+        <v>11.07577514962033</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.27482645984557</v>
+        <v>11.58331100164098</v>
       </c>
       <c r="M14">
-        <v>16.2219230005237</v>
+        <v>16.83703161311941</v>
       </c>
       <c r="N14">
-        <v>13.58723455685245</v>
+        <v>18.96390986535418</v>
       </c>
       <c r="O14">
-        <v>20.83355840855067</v>
+        <v>24.66614338511107</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.74552339456053</v>
+        <v>16.8803783072475</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.560506555169451</v>
+        <v>9.664505239717823</v>
       </c>
       <c r="E15">
-        <v>12.85488735556881</v>
+        <v>15.36070342618082</v>
       </c>
       <c r="F15">
-        <v>26.02646353355064</v>
+        <v>32.46054339803032</v>
       </c>
       <c r="G15">
-        <v>2.037977554584579</v>
+        <v>3.632456649851922</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.9509411027369</v>
+        <v>24.76807969439777</v>
       </c>
       <c r="J15">
-        <v>8.715256462934825</v>
+        <v>11.0724499882894</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.20857651426998</v>
+        <v>11.56765869575836</v>
       </c>
       <c r="M15">
-        <v>16.13521937472844</v>
+        <v>16.8192106089709</v>
       </c>
       <c r="N15">
-        <v>13.58918893349146</v>
+        <v>18.9663449536126</v>
       </c>
       <c r="O15">
-        <v>20.75473837937029</v>
+        <v>24.65926031414343</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.15570046539779</v>
+        <v>16.69055506349672</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.53259677285503</v>
+        <v>9.663268542634317</v>
       </c>
       <c r="E16">
-        <v>12.70572501189277</v>
+        <v>15.32535423948501</v>
       </c>
       <c r="F16">
-        <v>25.51975939041837</v>
+        <v>32.43803938318128</v>
       </c>
       <c r="G16">
-        <v>2.042256744241902</v>
+        <v>3.633964689838405</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.21577571936549</v>
+        <v>24.85555949467772</v>
       </c>
       <c r="J16">
-        <v>8.63082207939525</v>
+        <v>11.05340250510822</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.82252948006516</v>
+        <v>11.47788922631206</v>
       </c>
       <c r="M16">
-        <v>15.62982966384126</v>
+        <v>16.71720227799687</v>
       </c>
       <c r="N16">
-        <v>13.60184296489635</v>
+        <v>18.98088064222197</v>
       </c>
       <c r="O16">
-        <v>20.30410648315187</v>
+        <v>24.62165357263348</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.78573449481745</v>
+        <v>16.57343700066224</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.515752720797785</v>
+        <v>9.662591635606793</v>
       </c>
       <c r="E17">
-        <v>12.61367444828165</v>
+        <v>15.30366394602799</v>
       </c>
       <c r="F17">
-        <v>25.21188151073053</v>
+        <v>32.42647828690288</v>
       </c>
       <c r="G17">
-        <v>2.044906049425701</v>
+        <v>3.634910835399677</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.3801258779604</v>
+        <v>24.91036634977643</v>
       </c>
       <c r="J17">
-        <v>8.578789309234793</v>
+        <v>11.04172585184182</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.5799653605085</v>
+        <v>11.42277608060111</v>
       </c>
       <c r="M17">
-        <v>15.31703036572276</v>
+        <v>16.6547503136823</v>
       </c>
       <c r="N17">
-        <v>13.6108837256173</v>
+        <v>18.99031715477503</v>
       </c>
       <c r="O17">
-        <v>20.02867216155699</v>
+        <v>24.60022887187961</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.56996095659987</v>
+        <v>16.5058501154218</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.506162560395125</v>
+        <v>9.662232436602315</v>
       </c>
       <c r="E18">
-        <v>12.56053633208339</v>
+        <v>15.29118784751086</v>
       </c>
       <c r="F18">
-        <v>25.03592159534172</v>
+        <v>32.42065462419587</v>
       </c>
       <c r="G18">
-        <v>2.04643909494721</v>
+        <v>3.635462774518066</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.4753468898324</v>
+        <v>24.94230979855767</v>
       </c>
       <c r="J18">
-        <v>8.548778661410307</v>
+        <v>11.03501342002347</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.43832910762458</v>
+        <v>11.39106967789832</v>
       </c>
       <c r="M18">
-        <v>15.16309722337525</v>
+        <v>16.61888524326381</v>
       </c>
       <c r="N18">
-        <v>13.61654564324065</v>
+        <v>18.99593593368041</v>
       </c>
       <c r="O18">
-        <v>19.87065363876783</v>
+        <v>24.5885131423479</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.49639308779277</v>
+        <v>16.48293003158253</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.50293198552623</v>
+        <v>9.662116003142767</v>
       </c>
       <c r="E19">
-        <v>12.54251221926965</v>
+        <v>15.2869637079245</v>
       </c>
       <c r="F19">
-        <v>24.97654073537291</v>
+        <v>32.41882479040613</v>
       </c>
       <c r="G19">
-        <v>2.046959776874888</v>
+        <v>3.635650983028172</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.50770578861518</v>
+        <v>24.95319750701108</v>
       </c>
       <c r="J19">
-        <v>8.538603711958409</v>
+        <v>11.0327413927406</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.39000837055407</v>
+        <v>11.3803341127544</v>
       </c>
       <c r="M19">
-        <v>15.11068229275118</v>
+        <v>16.60675236136873</v>
       </c>
       <c r="N19">
-        <v>13.61854128329957</v>
+        <v>18.99787121276918</v>
       </c>
       <c r="O19">
-        <v>19.81722386925552</v>
+        <v>24.58465089380591</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.82542652791393</v>
+        <v>16.585928062525</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.517535560338551</v>
+        <v>9.662660576195393</v>
       </c>
       <c r="E20">
-        <v>12.62349353348195</v>
+        <v>15.30597298740014</v>
       </c>
       <c r="F20">
-        <v>25.24454013524408</v>
+        <v>32.42762352392896</v>
       </c>
       <c r="G20">
-        <v>2.044623078426732</v>
+        <v>3.634809315841506</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.36255898685773</v>
+        <v>24.90448861537272</v>
       </c>
       <c r="J20">
-        <v>8.584336937146039</v>
+        <v>11.04296848509014</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.60600586074149</v>
+        <v>11.42864387060909</v>
       </c>
       <c r="M20">
-        <v>15.34625695416228</v>
+        <v>16.66139287631935</v>
       </c>
       <c r="N20">
-        <v>13.60987334293928</v>
+        <v>18.98929284550285</v>
       </c>
       <c r="O20">
-        <v>20.05795154838919</v>
+        <v>24.60244677662366</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.89528570067816</v>
+        <v>16.92916315480244</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.567801553082661</v>
+        <v>9.664849735006738</v>
       </c>
       <c r="E21">
-        <v>12.89322456063662</v>
+        <v>15.36982735719837</v>
       </c>
       <c r="F21">
-        <v>26.15817755247419</v>
+        <v>32.46704628452824</v>
       </c>
       <c r="G21">
-        <v>2.036879922673354</v>
+        <v>3.632073783820176</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.88314931675412</v>
+        <v>24.74584622651096</v>
       </c>
       <c r="J21">
-        <v>8.736980331360174</v>
+        <v>11.07736976915999</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.30648241376657</v>
+        <v>11.590815116552</v>
       </c>
       <c r="M21">
-        <v>16.26334941123677</v>
+        <v>16.84557901232444</v>
       </c>
       <c r="N21">
-        <v>13.58632338710967</v>
+        <v>18.96275244459735</v>
       </c>
       <c r="O21">
-        <v>20.87137243792914</v>
+        <v>24.66947641301126</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.56783066444738</v>
+        <v>17.15104198282481</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.60161477491085</v>
+        <v>9.666546927431682</v>
       </c>
       <c r="E22">
-        <v>13.06765109986509</v>
+        <v>15.41152812315434</v>
       </c>
       <c r="F22">
-        <v>26.76464569992225</v>
+        <v>32.50013865406385</v>
       </c>
       <c r="G22">
-        <v>2.03189379170581</v>
+        <v>3.630354478645493</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.57601365573833</v>
+        <v>24.64588855099486</v>
       </c>
       <c r="J22">
-        <v>8.835931918207725</v>
+        <v>11.09987292803874</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.74566047898674</v>
+        <v>11.69655647501556</v>
       </c>
       <c r="M22">
-        <v>16.83788256398454</v>
+        <v>16.96625916373412</v>
       </c>
       <c r="N22">
-        <v>13.57521172837348</v>
+        <v>18.94710267715409</v>
       </c>
       <c r="O22">
-        <v>21.4059670282696</v>
+        <v>24.71863819824646</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.21132521874171</v>
+        <v>17.03286614071658</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.583475455020432</v>
+        <v>9.665616818352833</v>
       </c>
       <c r="E23">
-        <v>12.97473239350214</v>
+        <v>15.38927591054443</v>
       </c>
       <c r="F23">
-        <v>26.44013465788531</v>
+        <v>32.48180778355615</v>
       </c>
       <c r="G23">
-        <v>2.034548563078987</v>
+        <v>3.631265854129145</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.73936875411755</v>
+        <v>24.69889782366129</v>
       </c>
       <c r="J23">
-        <v>8.78319688301784</v>
+        <v>11.08786136652021</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.51295412901698</v>
+        <v>11.64015184976295</v>
       </c>
       <c r="M23">
-        <v>16.53350177611784</v>
+        <v>16.9018313450235</v>
       </c>
       <c r="N23">
-        <v>13.58074240345846</v>
+        <v>18.95530037924889</v>
       </c>
       <c r="O23">
-        <v>21.12039747039878</v>
+        <v>24.69191252362346</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.80749133626846</v>
+        <v>16.58028163992167</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.516729247629698</v>
+        <v>9.662629314825278</v>
       </c>
       <c r="E24">
-        <v>12.61905499939115</v>
+        <v>15.3049290883919</v>
       </c>
       <c r="F24">
-        <v>25.22977191419578</v>
+        <v>32.42710319847186</v>
       </c>
       <c r="G24">
-        <v>2.044750978618144</v>
+        <v>3.63485518794879</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.37049869250859</v>
+        <v>24.90714458621617</v>
       </c>
       <c r="J24">
-        <v>8.581829153719466</v>
+        <v>11.04240668850248</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.59423975258266</v>
+        <v>11.42599110642088</v>
       </c>
       <c r="M24">
-        <v>15.33256812250421</v>
+        <v>16.65838964886784</v>
       </c>
       <c r="N24">
-        <v>13.61032869268995</v>
+        <v>18.98975533259396</v>
       </c>
       <c r="O24">
-        <v>20.04471329501752</v>
+        <v>24.60144218729553</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.17957801110825</v>
+        <v>16.08384023953168</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.448444353917056</v>
+        <v>9.660560202440276</v>
       </c>
       <c r="E25">
-        <v>12.22813266631437</v>
+        <v>15.21394739501848</v>
       </c>
       <c r="F25">
-        <v>23.96765018041699</v>
+        <v>32.39967745109016</v>
       </c>
       <c r="G25">
-        <v>2.056112914446507</v>
+        <v>3.639023085536017</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.07773580518209</v>
+        <v>25.14783991211628</v>
       </c>
       <c r="J25">
-        <v>8.361512881465085</v>
+        <v>10.99352393133542</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.52209156925901</v>
+        <v>11.19483842597461</v>
       </c>
       <c r="M25">
-        <v>14.17884205141698</v>
+        <v>16.39803877965438</v>
       </c>
       <c r="N25">
-        <v>13.65981223003095</v>
+        <v>19.03423206970286</v>
       </c>
       <c r="O25">
-        <v>18.90040329891373</v>
+        <v>24.52708852537599</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_120/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_120/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.71374451806485</v>
+        <v>15.88479886225109</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.660037839661179</v>
+        <v>6.400950306947904</v>
       </c>
       <c r="E2">
-        <v>15.14709035048297</v>
+        <v>11.93493228211513</v>
       </c>
       <c r="F2">
-        <v>32.40669470620042</v>
+        <v>23.07965248048365</v>
       </c>
       <c r="G2">
-        <v>3.642349462444162</v>
+        <v>2.064825027086648</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.33900153116398</v>
+        <v>14.6214739407121</v>
       </c>
       <c r="J2">
-        <v>10.95771707362281</v>
+        <v>8.197056561412454</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.02550162149143</v>
+        <v>9.783527937697514</v>
       </c>
       <c r="M2">
-        <v>16.2092548954229</v>
+        <v>13.27597541938441</v>
       </c>
       <c r="N2">
-        <v>19.07330448870055</v>
+        <v>13.71051261842999</v>
       </c>
       <c r="O2">
-        <v>24.49250954384666</v>
+        <v>18.07579179277628</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.46143965800333</v>
+        <v>14.94883848376146</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.660312985752499</v>
+        <v>6.370326550771402</v>
       </c>
       <c r="E3">
-        <v>15.101929811064</v>
+        <v>11.73341953980263</v>
       </c>
       <c r="F3">
-        <v>32.42841335343417</v>
+        <v>22.50577798358202</v>
       </c>
       <c r="G3">
-        <v>3.644765870930261</v>
+        <v>2.070963341048608</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.47730906242088</v>
+        <v>15.00454359613683</v>
       </c>
       <c r="J3">
-        <v>10.93359541991284</v>
+        <v>8.084463447850151</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.91178279675109</v>
+        <v>9.262059899907166</v>
       </c>
       <c r="M3">
-        <v>16.08362589179921</v>
+        <v>12.63320244163101</v>
       </c>
       <c r="N3">
-        <v>19.10374759460316</v>
+        <v>13.7533716840872</v>
       </c>
       <c r="O3">
-        <v>24.48171495793156</v>
+        <v>17.53069542689801</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.30626576287761</v>
+        <v>14.34608963858331</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.660793873086323</v>
+        <v>6.352244733149992</v>
       </c>
       <c r="E4">
-        <v>15.07429699317788</v>
+        <v>11.60850924256642</v>
       </c>
       <c r="F4">
-        <v>32.45010262810058</v>
+        <v>22.1679146550058</v>
       </c>
       <c r="G4">
-        <v>3.646329974666914</v>
+        <v>2.074853229890422</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.56656891839322</v>
+        <v>15.24703013018138</v>
       </c>
       <c r="J4">
-        <v>10.91886608836706</v>
+        <v>8.014863997253228</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.84264332604312</v>
+        <v>8.928785981212243</v>
       </c>
       <c r="M4">
-        <v>16.00779357643</v>
+        <v>12.22436863209755</v>
       </c>
       <c r="N4">
-        <v>19.12440085473332</v>
+        <v>13.78375371935558</v>
       </c>
       <c r="O4">
-        <v>24.4813322689285</v>
+        <v>17.20373367391821</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.24304013263478</v>
+        <v>14.09356287730416</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.661068543734716</v>
+        <v>6.34505100064303</v>
       </c>
       <c r="E5">
-        <v>15.06306403739524</v>
+        <v>11.55734382544446</v>
       </c>
       <c r="F5">
-        <v>32.46103926750727</v>
+        <v>22.03398254328654</v>
       </c>
       <c r="G5">
-        <v>3.64698764716348</v>
+        <v>2.076469564874841</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.60403666728433</v>
+        <v>15.34769006738332</v>
       </c>
       <c r="J5">
-        <v>10.91288583517314</v>
+        <v>7.986399701826978</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.81466634418925</v>
+        <v>8.789811529324561</v>
       </c>
       <c r="M5">
-        <v>15.97724404864452</v>
+        <v>12.05439718177095</v>
       </c>
       <c r="N5">
-        <v>19.13331128155839</v>
+        <v>13.79713925686869</v>
       </c>
       <c r="O5">
-        <v>24.48274767381788</v>
+        <v>17.07258686635612</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.23254428148834</v>
+        <v>14.05121947857327</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.66111891385844</v>
+        <v>6.343866857763689</v>
       </c>
       <c r="E6">
-        <v>15.06120058482697</v>
+        <v>11.54883294188101</v>
       </c>
       <c r="F6">
-        <v>32.46298191028076</v>
+        <v>22.01197254274604</v>
       </c>
       <c r="G6">
-        <v>3.647098080423858</v>
+        <v>2.07673986051795</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.61032429048422</v>
+        <v>15.36451642079279</v>
       </c>
       <c r="J6">
-        <v>10.91189419741044</v>
+        <v>7.981667530188838</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.8100334891586</v>
+        <v>8.766548206514221</v>
       </c>
       <c r="M6">
-        <v>15.97219334038898</v>
+        <v>12.02597643951117</v>
       </c>
       <c r="N6">
-        <v>19.13482071797499</v>
+        <v>13.79942208086015</v>
       </c>
       <c r="O6">
-        <v>24.48307761231479</v>
+        <v>17.05094080110705</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.30541294538928</v>
+        <v>14.34271168490935</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.660797258355444</v>
+        <v>6.35214701675479</v>
       </c>
       <c r="E7">
-        <v>15.07414538506808</v>
+        <v>11.60782022927752</v>
       </c>
       <c r="F7">
-        <v>32.45024163264632</v>
+        <v>22.16609308617597</v>
       </c>
       <c r="G7">
-        <v>3.646338762037966</v>
+        <v>2.074874901144436</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.56706978990917</v>
+        <v>15.24838017668972</v>
       </c>
       <c r="J7">
-        <v>10.91878534514485</v>
+        <v>8.014480509864111</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.84226518348318</v>
+        <v>8.926924338581314</v>
       </c>
       <c r="M7">
-        <v>16.00738011426532</v>
+        <v>12.22208969504137</v>
       </c>
       <c r="N7">
-        <v>19.12451902223168</v>
+        <v>13.78393019689835</v>
       </c>
       <c r="O7">
-        <v>24.48134499484137</v>
+        <v>17.20195631114949</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.62684724567555</v>
+        <v>15.56798640246581</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.66006812341576</v>
+        <v>6.390237369718449</v>
       </c>
       <c r="E8">
-        <v>15.13150120553701</v>
+        <v>11.86571525137267</v>
       </c>
       <c r="F8">
-        <v>32.41244820487294</v>
+        <v>22.87883685257312</v>
       </c>
       <c r="G8">
-        <v>3.64316598855198</v>
+        <v>2.066916887656344</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.38579114082433</v>
+        <v>14.75205346321452</v>
       </c>
       <c r="J8">
-        <v>10.94938397426449</v>
+        <v>8.158340417855964</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.98616492281576</v>
+        <v>9.606512200478354</v>
       </c>
       <c r="M8">
-        <v>16.16568230204642</v>
+        <v>13.05739476663802</v>
       </c>
       <c r="N8">
-        <v>19.08339481026834</v>
+        <v>13.72443544466633</v>
       </c>
       <c r="O8">
-        <v>24.48749226217542</v>
+        <v>17.8863270652743</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.2519524188637</v>
+        <v>17.74302393350741</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.66110229199858</v>
+        <v>6.470988691425163</v>
       </c>
       <c r="E9">
-        <v>15.24458305976223</v>
+        <v>12.3607145053563</v>
       </c>
       <c r="F9">
-        <v>32.40469012435231</v>
+        <v>24.38666405685996</v>
       </c>
       <c r="G9">
-        <v>3.637579298804185</v>
+        <v>2.052234332658559</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.0646040589449</v>
+        <v>13.83595226504987</v>
       </c>
       <c r="J9">
-        <v>11.00996531547084</v>
+        <v>8.436106215110122</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.27263586152993</v>
+        <v>10.89421276583117</v>
       </c>
       <c r="M9">
-        <v>16.48535234723026</v>
+        <v>14.57603241107459</v>
       </c>
       <c r="N9">
-        <v>19.01826999952839</v>
+        <v>13.64087256016046</v>
       </c>
       <c r="O9">
-        <v>24.54901236479661</v>
+        <v>19.2833915719265</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.703887158725</v>
+        <v>19.19751184266457</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.663349859915675</v>
+        <v>6.534532369391956</v>
       </c>
       <c r="E10">
-        <v>15.32782910139648</v>
+        <v>12.71620194293985</v>
       </c>
       <c r="F10">
-        <v>32.43947042698301</v>
+        <v>25.55504021547874</v>
       </c>
       <c r="G10">
-        <v>3.633857775596899</v>
+        <v>2.041955665991855</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.84936250785215</v>
+        <v>13.19711590606425</v>
       </c>
       <c r="J10">
-        <v>11.05473534661658</v>
+        <v>8.636747898621278</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.48417645966805</v>
+        <v>11.84992132083429</v>
       </c>
       <c r="M10">
-        <v>16.7243353675333</v>
+        <v>15.66569803591933</v>
       </c>
       <c r="N10">
-        <v>18.9798297503779</v>
+        <v>13.60087449736783</v>
       </c>
       <c r="O10">
-        <v>24.6241803900313</v>
+        <v>20.3355878492739</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.90705758005123</v>
+        <v>19.82751325469254</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.664692320031456</v>
+        <v>6.564489809549243</v>
       </c>
       <c r="E11">
-        <v>15.36569109299818</v>
+        <v>12.87585269333983</v>
       </c>
       <c r="F11">
-        <v>32.46406417298802</v>
+        <v>26.09842063132307</v>
       </c>
       <c r="G11">
-        <v>3.632247042225414</v>
+        <v>2.037377201918805</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.75590871916215</v>
+        <v>12.91385468782719</v>
       </c>
       <c r="J11">
-        <v>11.07513925155691</v>
+        <v>8.727135390348259</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.58031814356271</v>
+        <v>12.26218210524339</v>
       </c>
       <c r="M11">
-        <v>16.83362330384811</v>
+        <v>16.20537551142557</v>
       </c>
       <c r="N11">
-        <v>18.96437328176695</v>
+        <v>13.58760260970415</v>
       </c>
       <c r="O11">
-        <v>24.66482003947583</v>
+        <v>20.81848171959062</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.98357926766758</v>
+        <v>20.06150575219966</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.665246416621075</v>
+        <v>6.575997790533339</v>
       </c>
       <c r="E12">
-        <v>15.38002349041201</v>
+        <v>12.93599137315186</v>
       </c>
       <c r="F12">
-        <v>32.47463484686737</v>
+        <v>26.30579749974509</v>
       </c>
       <c r="G12">
-        <v>3.631648853234795</v>
+        <v>2.035656313069237</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.72115892814396</v>
+        <v>12.80765000350182</v>
       </c>
       <c r="J12">
-        <v>11.08286933799255</v>
+        <v>8.761224934559994</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.61668467206107</v>
+        <v>12.41509787898083</v>
       </c>
       <c r="M12">
-        <v>16.87506262603368</v>
+        <v>16.40547437740505</v>
       </c>
       <c r="N12">
-        <v>18.9588112831447</v>
+        <v>13.58330901104767</v>
       </c>
       <c r="O12">
-        <v>24.68112868848803</v>
+        <v>21.00185895068686</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.96711842398538</v>
+        <v>20.01131499553023</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.665125052445438</v>
+        <v>6.57351184036175</v>
       </c>
       <c r="E13">
-        <v>15.37693704552334</v>
+        <v>12.92305385346145</v>
       </c>
       <c r="F13">
-        <v>32.47230240776857</v>
+        <v>26.26106494881045</v>
       </c>
       <c r="G13">
-        <v>3.631777161829711</v>
+        <v>2.036026383386736</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.72861452826786</v>
+        <v>12.83047580420127</v>
       </c>
       <c r="J13">
-        <v>11.08120439669564</v>
+        <v>8.753889446861288</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.60885471080494</v>
+        <v>12.38230636955173</v>
       </c>
       <c r="M13">
-        <v>16.86613595554087</v>
+        <v>16.36256851471703</v>
       </c>
       <c r="N13">
-        <v>18.95999622999919</v>
+        <v>13.58420075512961</v>
       </c>
       <c r="O13">
-        <v>24.67757557561387</v>
+        <v>20.96234373666959</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.91336174621373</v>
+        <v>19.84685573962421</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.664736990910566</v>
+        <v>6.565433218440066</v>
       </c>
       <c r="E14">
-        <v>15.36687035415317</v>
+        <v>12.88080681130224</v>
       </c>
       <c r="F14">
-        <v>32.46490865195774</v>
+        <v>26.11544988097246</v>
       </c>
       <c r="G14">
-        <v>3.63219759349793</v>
+        <v>2.037235372032298</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.75303703690924</v>
+        <v>12.90509587345564</v>
       </c>
       <c r="J14">
-        <v>11.07577514962033</v>
+        <v>8.729942785234993</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.58331100164098</v>
+        <v>12.27482645984557</v>
       </c>
       <c r="M14">
-        <v>16.83703161311941</v>
+        <v>16.2219230005237</v>
       </c>
       <c r="N14">
-        <v>18.96390986535418</v>
+        <v>13.58723455685245</v>
       </c>
       <c r="O14">
-        <v>24.66614338511107</v>
+        <v>20.83355840855069</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.8803783072475</v>
+        <v>19.74552339456054</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.664505239717823</v>
+        <v>6.560506555169576</v>
       </c>
       <c r="E15">
-        <v>15.36070342618082</v>
+        <v>12.8548873555688</v>
       </c>
       <c r="F15">
-        <v>32.46054339803032</v>
+        <v>26.02646353355071</v>
       </c>
       <c r="G15">
-        <v>3.632456649851922</v>
+        <v>2.037977554584312</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.76807969439777</v>
+        <v>12.95094110273693</v>
       </c>
       <c r="J15">
-        <v>11.0724499882894</v>
+        <v>8.715256462934761</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.56765869575836</v>
+        <v>12.20857651426997</v>
       </c>
       <c r="M15">
-        <v>16.8192106089709</v>
+        <v>16.13521937472843</v>
       </c>
       <c r="N15">
-        <v>18.9663449536126</v>
+        <v>13.58918893349145</v>
       </c>
       <c r="O15">
-        <v>24.65926031414343</v>
+        <v>20.75473837937032</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.69055506349672</v>
+        <v>19.1557004653978</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.663268542634317</v>
+        <v>6.53259677285503</v>
       </c>
       <c r="E16">
-        <v>15.32535423948501</v>
+        <v>12.70572501189283</v>
       </c>
       <c r="F16">
-        <v>32.43803938318128</v>
+        <v>25.51975939041837</v>
       </c>
       <c r="G16">
-        <v>3.633964689838405</v>
+        <v>2.042256744241902</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.85555949467772</v>
+        <v>13.21577571936549</v>
       </c>
       <c r="J16">
-        <v>11.05340250510822</v>
+        <v>8.630822079395308</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.47788922631206</v>
+        <v>11.82252948006512</v>
       </c>
       <c r="M16">
-        <v>16.71720227799687</v>
+        <v>15.62982966384126</v>
       </c>
       <c r="N16">
-        <v>18.98088064222197</v>
+        <v>13.60184296489638</v>
       </c>
       <c r="O16">
-        <v>24.62165357263348</v>
+        <v>20.30410648315187</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.57343700066224</v>
+        <v>18.78573449481746</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.662591635606793</v>
+        <v>6.515752720797656</v>
       </c>
       <c r="E17">
-        <v>15.30366394602799</v>
+        <v>12.61367444828159</v>
       </c>
       <c r="F17">
-        <v>32.42647828690288</v>
+        <v>25.21188151073052</v>
       </c>
       <c r="G17">
-        <v>3.634910835399677</v>
+        <v>2.044906049425702</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.91036634977643</v>
+        <v>13.38012587796041</v>
       </c>
       <c r="J17">
-        <v>11.04172585184182</v>
+        <v>8.578789309234846</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.42277608060111</v>
+        <v>11.57996536050849</v>
       </c>
       <c r="M17">
-        <v>16.6547503136823</v>
+        <v>15.31703036572276</v>
       </c>
       <c r="N17">
-        <v>18.99031715477503</v>
+        <v>13.61088372561733</v>
       </c>
       <c r="O17">
-        <v>24.60022887187961</v>
+        <v>20.028672161557</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.5058501154218</v>
+        <v>18.56996095659989</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.662232436602315</v>
+        <v>6.506162560394987</v>
       </c>
       <c r="E18">
-        <v>15.29118784751086</v>
+        <v>12.56053633208337</v>
       </c>
       <c r="F18">
-        <v>32.42065462419587</v>
+        <v>25.03592159534172</v>
       </c>
       <c r="G18">
-        <v>3.635462774518066</v>
+        <v>2.046439094947476</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.94230979855767</v>
+        <v>13.47534688983246</v>
       </c>
       <c r="J18">
-        <v>11.03501342002347</v>
+        <v>8.54877866141034</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.39106967789832</v>
+        <v>11.43832910762456</v>
       </c>
       <c r="M18">
-        <v>16.61888524326381</v>
+        <v>15.16309722337526</v>
       </c>
       <c r="N18">
-        <v>18.99593593368041</v>
+        <v>13.61654564324068</v>
       </c>
       <c r="O18">
-        <v>24.5885131423479</v>
+        <v>19.87065363876785</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.48293003158253</v>
+        <v>18.4963930877928</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.662116003142767</v>
+        <v>6.502931985526225</v>
       </c>
       <c r="E19">
-        <v>15.2869637079245</v>
+        <v>12.54251221926964</v>
       </c>
       <c r="F19">
-        <v>32.41882479040613</v>
+        <v>24.97654073537291</v>
       </c>
       <c r="G19">
-        <v>3.635650983028172</v>
+        <v>2.046959776874889</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.95319750701108</v>
+        <v>13.50770578861516</v>
       </c>
       <c r="J19">
-        <v>11.0327413927406</v>
+        <v>8.538603711958402</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.3803341127544</v>
+        <v>11.39000837055405</v>
       </c>
       <c r="M19">
-        <v>16.60675236136873</v>
+        <v>15.1106822927512</v>
       </c>
       <c r="N19">
-        <v>18.99787121276918</v>
+        <v>13.61854128329951</v>
       </c>
       <c r="O19">
-        <v>24.58465089380591</v>
+        <v>19.81722386925551</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.585928062525</v>
+        <v>18.82542652791395</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.662660576195393</v>
+        <v>6.51753556033862</v>
       </c>
       <c r="E20">
-        <v>15.30597298740014</v>
+        <v>12.62349353348205</v>
       </c>
       <c r="F20">
-        <v>32.42762352392896</v>
+        <v>25.2445401352441</v>
       </c>
       <c r="G20">
-        <v>3.634809315841506</v>
+        <v>2.044623078426866</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.90448861537272</v>
+        <v>13.36255898685793</v>
       </c>
       <c r="J20">
-        <v>11.04296848509014</v>
+        <v>8.584336937146057</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.42864387060909</v>
+        <v>11.60600586074153</v>
       </c>
       <c r="M20">
-        <v>16.66139287631935</v>
+        <v>15.34625695416227</v>
       </c>
       <c r="N20">
-        <v>18.98929284550285</v>
+        <v>13.60987334293931</v>
       </c>
       <c r="O20">
-        <v>24.60244677662366</v>
+        <v>20.05795154838919</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.92916315480244</v>
+        <v>19.89528570067818</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.664849735006738</v>
+        <v>6.56780155308279</v>
       </c>
       <c r="E21">
-        <v>15.36982735719837</v>
+        <v>12.8932245606365</v>
       </c>
       <c r="F21">
-        <v>32.46704628452824</v>
+        <v>26.15817755247423</v>
       </c>
       <c r="G21">
-        <v>3.632073783820176</v>
+        <v>2.036879922673222</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.74584622651096</v>
+        <v>12.88314931675406</v>
       </c>
       <c r="J21">
-        <v>11.07736976915999</v>
+        <v>8.73698033136003</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.590815116552</v>
+        <v>12.30648241376657</v>
       </c>
       <c r="M21">
-        <v>16.84557901232444</v>
+        <v>16.26334941123678</v>
       </c>
       <c r="N21">
-        <v>18.96275244459735</v>
+        <v>13.58632338710964</v>
       </c>
       <c r="O21">
-        <v>24.66947641301126</v>
+        <v>20.87137243792916</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.15104198282481</v>
+        <v>20.56783066444739</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.666546927431682</v>
+        <v>6.601614774910786</v>
       </c>
       <c r="E22">
-        <v>15.41152812315434</v>
+        <v>13.06765109986508</v>
       </c>
       <c r="F22">
-        <v>32.50013865406385</v>
+        <v>26.76464569992222</v>
       </c>
       <c r="G22">
-        <v>3.630354478645493</v>
+        <v>2.031893791706076</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.64588855099486</v>
+        <v>12.5760136557383</v>
       </c>
       <c r="J22">
-        <v>11.09987292803874</v>
+        <v>8.835931918207725</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.69655647501556</v>
+        <v>12.74566047898673</v>
       </c>
       <c r="M22">
-        <v>16.96625916373412</v>
+        <v>16.83788256398453</v>
       </c>
       <c r="N22">
-        <v>18.94710267715409</v>
+        <v>13.57521172837345</v>
       </c>
       <c r="O22">
-        <v>24.71863819824646</v>
+        <v>21.40596702826958</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.03286614071658</v>
+        <v>20.21132521874173</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.665616818352833</v>
+        <v>6.583475455020301</v>
       </c>
       <c r="E23">
-        <v>15.38927591054443</v>
+        <v>12.9747323935022</v>
       </c>
       <c r="F23">
-        <v>32.48180778355615</v>
+        <v>26.44013465788528</v>
       </c>
       <c r="G23">
-        <v>3.631265854129145</v>
+        <v>2.034548563078987</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.69889782366129</v>
+        <v>12.73936875411755</v>
       </c>
       <c r="J23">
-        <v>11.08786136652021</v>
+        <v>8.783196883017927</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.64015184976295</v>
+        <v>12.51295412901695</v>
       </c>
       <c r="M23">
-        <v>16.9018313450235</v>
+        <v>16.53350177611782</v>
       </c>
       <c r="N23">
-        <v>18.95530037924889</v>
+        <v>13.58074240345846</v>
       </c>
       <c r="O23">
-        <v>24.69191252362346</v>
+        <v>21.12039747039878</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.58028163992167</v>
+        <v>18.80749133626849</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.662629314825278</v>
+        <v>6.516729247629625</v>
       </c>
       <c r="E24">
-        <v>15.3049290883919</v>
+        <v>12.61905499939113</v>
       </c>
       <c r="F24">
-        <v>32.42710319847186</v>
+        <v>25.22977191419584</v>
       </c>
       <c r="G24">
-        <v>3.63485518794879</v>
+        <v>2.044750978618278</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.90714458621617</v>
+        <v>13.37049869250863</v>
       </c>
       <c r="J24">
-        <v>11.04240668850248</v>
+        <v>8.581829153719486</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.42599110642088</v>
+        <v>11.59423975258261</v>
       </c>
       <c r="M24">
-        <v>16.65838964886784</v>
+        <v>15.33256812250422</v>
       </c>
       <c r="N24">
-        <v>18.98975533259396</v>
+        <v>13.61032869268996</v>
       </c>
       <c r="O24">
-        <v>24.60144218729553</v>
+        <v>20.04471329501756</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.08384023953168</v>
+        <v>17.17957801110827</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.660560202440276</v>
+        <v>6.448444353916989</v>
       </c>
       <c r="E25">
-        <v>15.21394739501848</v>
+        <v>12.2281326663143</v>
       </c>
       <c r="F25">
-        <v>32.39967745109016</v>
+        <v>23.967650180417</v>
       </c>
       <c r="G25">
-        <v>3.639023085536017</v>
+        <v>2.056112914446506</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.14783991211628</v>
+        <v>14.07773580518209</v>
       </c>
       <c r="J25">
-        <v>10.99352393133542</v>
+        <v>8.361512881465078</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.19483842597461</v>
+        <v>10.522091569259</v>
       </c>
       <c r="M25">
-        <v>16.39803877965438</v>
+        <v>14.17884205141699</v>
       </c>
       <c r="N25">
-        <v>19.03423206970286</v>
+        <v>13.65981223003094</v>
       </c>
       <c r="O25">
-        <v>24.52708852537599</v>
+        <v>18.90040329891377</v>
       </c>
     </row>
   </sheetData>
